--- a/6/1/1/3/5/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/5/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9077,7 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="C174">
         <v>1710</v>
@@ -9107,13 +9110,13 @@
         <v>73</v>
       </c>
       <c r="M174">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N174">
         <v>115</v>
       </c>
       <c r="O174">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -9121,7 +9124,7 @@
         <v>186</v>
       </c>
       <c r="B175">
-        <v>1490</v>
+        <v>1617</v>
       </c>
       <c r="C175">
         <v>1480</v>
@@ -9139,7 +9142,7 @@
         <v>473</v>
       </c>
       <c r="H175">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I175">
         <v>164</v>
@@ -9151,16 +9154,63 @@
         <v>51</v>
       </c>
       <c r="L175">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M175">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="N175">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O175">
-        <v>11</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>1662</v>
+      </c>
+      <c r="C176">
+        <v>1583</v>
+      </c>
+      <c r="D176">
+        <v>492</v>
+      </c>
+      <c r="E176">
+        <v>1091</v>
+      </c>
+      <c r="F176">
+        <v>213</v>
+      </c>
+      <c r="G176">
+        <v>694</v>
+      </c>
+      <c r="H176">
+        <v>367</v>
+      </c>
+      <c r="I176">
+        <v>141</v>
+      </c>
+      <c r="J176">
+        <v>119</v>
+      </c>
+      <c r="K176">
+        <v>17</v>
+      </c>
+      <c r="L176">
+        <v>32</v>
+      </c>
+      <c r="M176">
+        <v>80</v>
+      </c>
+      <c r="N176">
+        <v>5</v>
+      </c>
+      <c r="O176">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/5/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/5/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9213,6 +9216,53 @@
         <v>75</v>
       </c>
     </row>
+    <row r="177" spans="1:15">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>1771</v>
+      </c>
+      <c r="C177">
+        <v>1648</v>
+      </c>
+      <c r="D177">
+        <v>540</v>
+      </c>
+      <c r="E177">
+        <v>1108</v>
+      </c>
+      <c r="F177">
+        <v>325</v>
+      </c>
+      <c r="G177">
+        <v>526</v>
+      </c>
+      <c r="H177">
+        <v>298</v>
+      </c>
+      <c r="I177">
+        <v>149</v>
+      </c>
+      <c r="J177">
+        <v>198</v>
+      </c>
+      <c r="K177">
+        <v>23</v>
+      </c>
+      <c r="L177">
+        <v>129</v>
+      </c>
+      <c r="M177">
+        <v>123</v>
+      </c>
+      <c r="N177">
+        <v>40</v>
+      </c>
+      <c r="O177">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/5/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/5/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9263,6 +9266,53 @@
         <v>83</v>
       </c>
     </row>
+    <row r="178" spans="1:15">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>1628</v>
+      </c>
+      <c r="C178">
+        <v>1628</v>
+      </c>
+      <c r="D178">
+        <v>525</v>
+      </c>
+      <c r="E178">
+        <v>1103</v>
+      </c>
+      <c r="F178">
+        <v>200</v>
+      </c>
+      <c r="G178">
+        <v>411</v>
+      </c>
+      <c r="H178">
+        <v>509</v>
+      </c>
+      <c r="I178">
+        <v>196</v>
+      </c>
+      <c r="J178">
+        <v>64</v>
+      </c>
+      <c r="K178">
+        <v>28</v>
+      </c>
+      <c r="L178">
+        <v>220</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
